--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H2">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>73.32746574731033</v>
+        <v>462.3316959657601</v>
       </c>
       <c r="R2">
-        <v>659.947191725793</v>
+        <v>4160.98526369184</v>
       </c>
       <c r="S2">
-        <v>0.008019186441831581</v>
+        <v>0.03227473696956135</v>
       </c>
       <c r="T2">
-        <v>0.008019186441831583</v>
+        <v>0.03227473696956135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H3">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
-        <v>23.076041233335</v>
+        <v>82.59158370105</v>
       </c>
       <c r="R3">
-        <v>207.684371100015</v>
+        <v>743.3242533094501</v>
       </c>
       <c r="S3">
-        <v>0.002523625698823421</v>
+        <v>0.005765604355294544</v>
       </c>
       <c r="T3">
-        <v>0.002523625698823422</v>
+        <v>0.005765604355294545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H4">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
-        <v>10.87712783757445</v>
+        <v>38.93038693856667</v>
       </c>
       <c r="R4">
-        <v>97.89415053817001</v>
+        <v>350.3734824471</v>
       </c>
       <c r="S4">
-        <v>0.001189536760778417</v>
+        <v>0.002717676528624893</v>
       </c>
       <c r="T4">
-        <v>0.001189536760778417</v>
+        <v>0.002717676528624893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>66.829058</v>
       </c>
       <c r="I5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N5">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O5">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P5">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q5">
-        <v>2542.966327902395</v>
+        <v>4479.743156162112</v>
       </c>
       <c r="R5">
-        <v>22886.69695112156</v>
+        <v>40317.68840545901</v>
       </c>
       <c r="S5">
-        <v>0.2781020848180225</v>
+        <v>0.3127246808253278</v>
       </c>
       <c r="T5">
-        <v>0.2781020848180225</v>
+        <v>0.3127246808253278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>66.829058</v>
       </c>
       <c r="I6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q6">
         <v>800.26761104601</v>
@@ -818,10 +818,10 @@
         <v>7202.40849941409</v>
       </c>
       <c r="S6">
-        <v>0.08751830042036476</v>
+        <v>0.05586557633219687</v>
       </c>
       <c r="T6">
-        <v>0.08751830042036478</v>
+        <v>0.05586557633219688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>66.829058</v>
       </c>
       <c r="I7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P7">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q7">
         <v>377.2143159912245</v>
@@ -880,10 +880,10 @@
         <v>3394.92884392102</v>
       </c>
       <c r="S7">
-        <v>0.04125264520780956</v>
+        <v>0.02633281026588193</v>
       </c>
       <c r="T7">
-        <v>0.04125264520780956</v>
+        <v>0.02633281026588193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.494299</v>
       </c>
       <c r="I8">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J8">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N8">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O8">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P8">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q8">
-        <v>3633.730507822561</v>
+        <v>6401.256357642337</v>
       </c>
       <c r="R8">
-        <v>32703.57457040305</v>
+        <v>57611.30721878102</v>
       </c>
       <c r="S8">
-        <v>0.3973894655246464</v>
+        <v>0.446862862789618</v>
       </c>
       <c r="T8">
-        <v>0.3973894655246464</v>
+        <v>0.4468628627896178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.494299</v>
       </c>
       <c r="I9">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J9">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.773605</v>
       </c>
       <c r="O9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q9">
         <v>1143.529428908655</v>
@@ -1004,10 +1004,10 @@
         <v>10291.76486017789</v>
       </c>
       <c r="S9">
-        <v>0.125057856543693</v>
+        <v>0.07982820961016884</v>
       </c>
       <c r="T9">
-        <v>0.125057856543693</v>
+        <v>0.07982820961016884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.494299</v>
       </c>
       <c r="I10">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J10">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>50.80019</v>
       </c>
       <c r="O10">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P10">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q10">
         <v>539.0142814574233</v>
@@ -1066,10 +1066,10 @@
         <v>4851.12853311681</v>
       </c>
       <c r="S10">
-        <v>0.05894729858403037</v>
+        <v>0.03762784232332586</v>
       </c>
       <c r="T10">
-        <v>0.05894729858403035</v>
+        <v>0.03762784232332585</v>
       </c>
     </row>
   </sheetData>
